--- a/bioSample/bioSample_H.BROWN_09.11.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_09.11.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5DC3E2-7521-2841-AE40-95C2A27593A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E2343-A8F7-C048-A77F-28FD6DD7E0B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="1200" windowWidth="23060" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -584,14 +584,16 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1048576"/>
+      <selection activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/bioSample/bioSample_H.BROWN_09.11.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_09.11.20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6399ADF6-513A-5C4F-BC87-B3F53949101F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAD2AD7-9EE0-2446-B3C1-FF1774BB83D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="660" windowWidth="16380" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12940" yWindow="6720" windowWidth="16380" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="70">
   <si>
     <t>harvestDate</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>CNAG_00156</t>
+  </si>
+  <si>
+    <t>marker_1</t>
+  </si>
+  <si>
+    <t>G418</t>
+  </si>
+  <si>
+    <t>NAT</t>
   </si>
 </sst>
 </file>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +685,7 @@
     <col min="12" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +713,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -734,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -763,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -820,8 +835,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -849,8 +867,11 @@
       <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -878,8 +899,11 @@
       <c r="I7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -907,8 +931,11 @@
       <c r="I8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -936,8 +963,11 @@
       <c r="I9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -965,8 +995,11 @@
       <c r="I10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -994,8 +1027,11 @@
       <c r="I11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1023,8 +1059,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1091,11 @@
       <c r="I13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1123,11 @@
       <c r="I14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1110,8 +1155,11 @@
       <c r="I15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1139,8 +1187,11 @@
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1168,8 +1219,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1197,8 +1251,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1283,11 @@
       <c r="I19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1255,8 +1315,11 @@
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1284,8 +1347,11 @@
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1313,8 +1379,11 @@
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1342,8 +1411,11 @@
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1371,8 +1443,11 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1400,8 +1475,11 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1429,8 +1507,11 @@
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1458,8 +1539,11 @@
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1487,8 +1571,11 @@
       <c r="I28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1515,6 +1602,9 @@
       </c>
       <c r="I29">
         <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
